--- a/Test case cheat sheets.xlsx
+++ b/Test case cheat sheets.xlsx
@@ -5,28 +5,30 @@
   <fileSharing readOnlyRecommended="0" userName="Ashu"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="5" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId4"/>
     <sheet name="Footer" sheetId="2" r:id="rId5"/>
     <sheet name="Upload File_Image" sheetId="3" r:id="rId6"/>
     <sheet name="Login" sheetId="4" r:id="rId7"/>
+    <sheet name="Login page" sheetId="5" r:id="rId8"/>
+    <sheet name="Registration" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1722355025" val="1216" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1722355025" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1722355025" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1722355025"/>
+      <pm:revision xmlns:pm="smNativeData" day="1722421058" val="1216" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1722421058" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1722421058" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1722421058"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Test Cases For Header Section</t>
   </si>
@@ -368,6 +370,114 @@
   </si>
   <si>
     <t>Prevent login page from SQL injection attack.</t>
+  </si>
+  <si>
+    <t>Test Cases For Login Page</t>
+  </si>
+  <si>
+    <t>Verify the login screen will appear after clicking on a login
+link or login button.</t>
+  </si>
+  <si>
+    <t>Verify all login-related elements and fields are present on
+the login page.</t>
+  </si>
+  <si>
+    <t>Verify the alignment of displayed elements on the login
+screen should be compatible in cross browser testing.</t>
+  </si>
+  <si>
+    <t>Verify that the size, color, and UI of different elements
+should match the specifications.</t>
+  </si>
+  <si>
+    <t>Verify that the login page of the application is responsive
+and aligns properly on different screen resolutions and
+devices.</t>
+  </si>
+  <si>
+    <t>Verify login page title.</t>
+  </si>
+  <si>
+    <t>Verify that after the user login page is open, the cursor 
+should in the username text box by default.</t>
+  </si>
+  <si>
+    <t>Verify that there is a checkbox with the label remember
+password on the login page.</t>
+  </si>
+  <si>
+    <t>Verify the remember me checkbox should mark as
+checked after clicking on the label text and the check
+box.</t>
+  </si>
+  <si>
+    <t>Verify that there is an option of "Forget Password"</t>
+  </si>
+  <si>
+    <t>Test Cases For Registration Page</t>
+  </si>
+  <si>
+    <t>Verify all fields related to registration present on the 
+registration form.</t>
+  </si>
+  <si>
+    <t>Verify that password field should have validation for a
+minimum of 8 to maximum of 16 characters.</t>
+  </si>
+  <si>
+    <t>Verify password added by the user should be protected
+encrypted, and shown in an asterisk(***).</t>
+  </si>
+  <si>
+    <t>Verify whether the validation is added for the password
+and confirm whether passwords are the same or not.</t>
+  </si>
+  <si>
+    <t>Verify an eye icon added to the password and confirm
+the password field.</t>
+  </si>
+  <si>
+    <t>Verify by clicking on the eye icon password should be
+shown for both passwords and confirm password
+fields.</t>
+  </si>
+  <si>
+    <t>Verify captcha is added to the form or not. Captcha 
+added due to security. Hidden or visible may be added
+according to need.</t>
+  </si>
+  <si>
+    <t>Verify that placeholder text is shown in the fields.</t>
+  </si>
+  <si>
+    <t>Verify that user-added information is not removed from
+the fields in case of any validation fails. Can be done 
+when client-side validation is implemented.</t>
+  </si>
+  <si>
+    <t>Verify possible validation should be done on the client
+side whenever possible</t>
+  </si>
+  <si>
+    <t>Verify that validation is added to the email fields, only 
+valid emails should be allowed to register successfully.</t>
+  </si>
+  <si>
+    <t>Verify that after user adds blank spaces and click on 
+register button, an error message should be shown.</t>
+  </si>
+  <si>
+    <t>Verify that the user can navigate or access the 
+next field by pressing the 'Tab' key on the keyboard.</t>
+  </si>
+  <si>
+    <t>Verify user can register successfully by entering valid
+credentials.</t>
+  </si>
+  <si>
+    <t>Verify that the user is not allowed to register an account
+with the same email.</t>
   </si>
 </sst>
 </file>
@@ -392,7 +502,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722355025" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722421058" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -407,7 +517,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722355025" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722421058" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="280" lang="default"/>
             <pm:ea face="SimSun" sz="280" lang="default"/>
@@ -422,7 +532,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722355025" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722421058" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Lato" sz="280" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold"/>
@@ -437,7 +547,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722355025" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722421058" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -459,7 +569,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1722355025" type="1" fgLvl="82" fgClr="0000FF00" bgLvl="18" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722421058" type="1" fgLvl="82" fgClr="0000FF00" bgLvl="18" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -470,7 +580,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1722355025" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722421058" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -492,7 +602,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722355025"/>
+          <pm:border xmlns:pm="smNativeData" id="1722421058"/>
         </ext>
       </extLst>
     </border>
@@ -511,7 +621,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722355025"/>
+          <pm:border xmlns:pm="smNativeData" id="1722421058"/>
         </ext>
       </extLst>
     </border>
@@ -530,7 +640,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722355025"/>
+          <pm:border xmlns:pm="smNativeData" id="1722421058"/>
         </ext>
       </extLst>
     </border>
@@ -538,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,6 +678,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,10 +707,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1722355025" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1722421058" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1722355025" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1722421058" count="3">
         <pm:color name="Color 24" rgb="FF6D01"/>
         <pm:color name="Color 25" rgb="00D1D1"/>
         <pm:color name="Color 26" rgb="00D100"/>
@@ -1051,7 +1174,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722355025" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722421058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1060,16 +1183,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722355025" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722355025" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722355025" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722355025" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722355025" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722421058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1307,7 +1430,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722355025" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722421058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1316,16 +1439,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722355025" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722355025" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722355025" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722355025" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722355025" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722421058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1609,7 +1732,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722355025" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722421058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1618,16 +1741,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722355025" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722355025" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722355025" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722355025" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722355025" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722421058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1640,15 +1763,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A5:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.000000" style="11"/>
-    <col min="2" max="2" width="69.864865" customWidth="1" style="11"/>
-    <col min="3" max="16384" width="10.000000" style="11"/>
+    <col min="1" max="1" width="10.000000" style="4"/>
+    <col min="2" max="2" width="69.864865" customWidth="1" style="4"/>
+    <col min="3" max="16384" width="10.000000" style="4"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:13" s="4" customFormat="1">
@@ -1667,200 +1790,200 @@
       <c r="M5" s="1"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="37.25" customHeight="1">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="11" t="n">
+      <c r="A20" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11" t="n">
+      <c r="A23" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="11" t="n">
+      <c r="A24" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="11" t="n">
+      <c r="A25" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="11" t="n">
+      <c r="A26" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="12"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="12"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="12"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="12"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="12"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="12"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="12"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="12"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="12"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="12"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="12"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="12"/>
+      <c r="B38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1869,7 +1992,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722355025" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722421058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1878,16 +2001,849 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722355025" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722355025" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722355025" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722355025" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722355025" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722421058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5:M127"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="21.450450" customWidth="1" style="11"/>
+    <col min="2" max="2" width="64.810811" customWidth="1" style="11"/>
+    <col min="3" max="3" width="10.000000" style="11"/>
+    <col min="4" max="16384" width="21.450450" customWidth="1" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:13" s="4" customFormat="1">
+      <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="15"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="15"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="13"/>
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="13"/>
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="13"/>
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="13"/>
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="13"/>
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="13"/>
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="13"/>
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="13"/>
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="13"/>
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="13"/>
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="13"/>
+      <c r="B61" s="12"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="13"/>
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="13"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="13"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="13"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="13"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="13"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="13"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="13"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="13"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="13"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="13"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="13"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="13"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="13"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="13"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="13"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="13"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="13"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="13"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="13"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="13"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="13"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="13"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="13"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="13"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="13"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="13"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="13"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="13"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="13"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="13"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="13"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="13"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="13"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="13"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="13"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="13"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="13"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="13"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="13"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="13"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="13"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="13"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="13"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="13"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="13"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="13"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="13"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="13"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="13"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="13"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="13"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="13"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="13"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="13"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="13"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="13"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="13"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722421058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722421058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5:M60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="20.432432" customWidth="1" style="16"/>
+    <col min="2" max="2" width="63.684685" customWidth="1" style="16"/>
+    <col min="3" max="3" width="10.000000" style="16"/>
+    <col min="4" max="16384" width="20.432432" customWidth="1" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:13" s="4" customFormat="1">
+      <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="17"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="17"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="17"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="17"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="17"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="17"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="17"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="17"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="17"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="17"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="17"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="17"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="17"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="17"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="17"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="17"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="17"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722421058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722421058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Test case cheat sheets.xlsx
+++ b/Test case cheat sheets.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="Ashu"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="8" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="671"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId4"/>
@@ -14,21 +14,24 @@
     <sheet name="Login" sheetId="4" r:id="rId7"/>
     <sheet name="Login page" sheetId="5" r:id="rId8"/>
     <sheet name="Registration" sheetId="6" r:id="rId9"/>
+    <sheet name="Forget Password" sheetId="7" r:id="rId10"/>
+    <sheet name="Button" sheetId="8" r:id="rId11"/>
+    <sheet name="Checkbox" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1722421058" val="1216" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1722421058" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1722421058" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1722421058"/>
+      <pm:revision xmlns:pm="smNativeData" day="1722575979" val="1216" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1722575979" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1722575979" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1722575979"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Test Cases For Header Section</t>
   </si>
@@ -478,6 +481,179 @@
   <si>
     <t>Verify that the user is not allowed to register an account
 with the same email.</t>
+  </si>
+  <si>
+    <t>Test Cases For Forget Password</t>
+  </si>
+  <si>
+    <t>Verify that forget password link should be present on the
+login screen</t>
+  </si>
+  <si>
+    <t>Verify that on clicking on the forget password link, 
+forget password page should open.</t>
+  </si>
+  <si>
+    <t>Verify that the email field is present on the forget 
+password page to recover the password.</t>
+  </si>
+  <si>
+    <t>Verify as the user update password, the user should log
+out from all browser and devices.</t>
+  </si>
+  <si>
+    <t>Verify that an email validation is added to the email field.</t>
+  </si>
+  <si>
+    <t>Verify Submit button should be present on the page.</t>
+  </si>
+  <si>
+    <t>Verify that the button is clickable</t>
+  </si>
+  <si>
+    <t>Verify that the link sent to the user should expire after a
+certain time.</t>
+  </si>
+  <si>
+    <t>Verify sent password link should be disabled on clicking
+multiple times on the link or as per specification and
+requirements.</t>
+  </si>
+  <si>
+    <t>Verify that error message should be displayed after 
+entering an unregistered user email id.</t>
+  </si>
+  <si>
+    <t>Verify the displayed error message for unregistered
+should be meaningful.</t>
+  </si>
+  <si>
+    <t>Verify the confirmation message, "check your email to
+recover the password" should be displayed after 
+clicking on the button by entering the registered email.</t>
+  </si>
+  <si>
+    <t>Verify that the user will get an email after entering a 
+valid email id in forget password.</t>
+  </si>
+  <si>
+    <t>Verify the email which the user gets against forgot
+password should be displayed in the inbox, not in the
+spam folder.</t>
+  </si>
+  <si>
+    <t>Verify the heading displayed in forget password screen
+should be "Forget Password"</t>
+  </si>
+  <si>
+    <t>Verify the error message should be displayed when 
+entering spaces in the field and clicking on the submit
+button.</t>
+  </si>
+  <si>
+    <t>Verify the subject name displayed in forget password
+email should be "Your New Password"</t>
+  </si>
+  <si>
+    <t>Verify thatuser should be login successfully with new
+password and not by the old password.</t>
+  </si>
+  <si>
+    <t>Test Cases For Button</t>
+  </si>
+  <si>
+    <t>Verify button present on the page as per the design on
+the web page.</t>
+  </si>
+  <si>
+    <t>Verify the button colour same as per design.</t>
+  </si>
+  <si>
+    <t>Verify icon added on the button if added in the design.
+for example Upload or download icon with the button.</t>
+  </si>
+  <si>
+    <t>Verify icon added on the button must be aligned with 
+button and button text or not.</t>
+  </si>
+  <si>
+    <t>Verify width and height for the button.</t>
+  </si>
+  <si>
+    <t>Verify button text related to the functionality of the tool
+on the web page.</t>
+  </si>
+  <si>
+    <t>Verify button is clickable or not by clicking on the button.</t>
+  </si>
+  <si>
+    <t>Verify colour change on the mouse hover or not.</t>
+  </si>
+  <si>
+    <t>Verify user can be able to open button link in a new tab 
+by right click on the button, Open link new tab option 
+shown or not.</t>
+  </si>
+  <si>
+    <t>Verify the spelling for the button text is correct or not.</t>
+  </si>
+  <si>
+    <t>Verify button text is readable or not.</t>
+  </si>
+  <si>
+    <t>Verify button text colour should be visible on the button.</t>
+  </si>
+  <si>
+    <t>Test Cases For Checkbox</t>
+  </si>
+  <si>
+    <t>Verify that the checkbox is present on the webpage is in the
+correct position.</t>
+  </si>
+  <si>
+    <t>Verify the width and height of the checkbox.</t>
+  </si>
+  <si>
+    <t>Verify the border-radius for the checkbox rounded or corner 
+edge.</t>
+  </si>
+  <si>
+    <t>Verify the color for the tick by clicking the checkbox.</t>
+  </si>
+  <si>
+    <t>Verify the checkbox is selectable by mouse click.</t>
+  </si>
+  <si>
+    <t>Verify that user can uncheck the checkbox by clicking on it.</t>
+  </si>
+  <si>
+    <t>Verify if the user can select multiple checkboxes or not.</t>
+  </si>
+  <si>
+    <t>Verify the label text present with thr checkbox.</t>
+  </si>
+  <si>
+    <t>Verify if the label text aligned with the checkbox or not.</t>
+  </si>
+  <si>
+    <t>Verify that the very first checkbox is selected by default and shows a tick mark when the page loads</t>
+  </si>
+  <si>
+    <t>Verify whether clicking on the label text checks or unchecks the checkbox.</t>
+  </si>
+  <si>
+    <t>Verify same label text is not repeated with the checkboxes.</t>
+  </si>
+  <si>
+    <t>Verify the order for the values or label text with the 
+checkboxes.</t>
+  </si>
+  <si>
+    <t>Verify that validation is added so that if no checkbox is checked and the submit button is clicked, an alert or error message appears.</t>
+  </si>
+  <si>
+    <t>Verify whether user-selected checkbox values should save
+in the database by clicking on the Submit button or not.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +678,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722421058" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722575979" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -517,7 +693,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722421058" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722575979" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="280" lang="default"/>
             <pm:ea face="SimSun" sz="280" lang="default"/>
@@ -532,7 +708,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722421058" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722575979" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Lato" sz="280" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold"/>
@@ -547,7 +723,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722421058" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722575979" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -569,7 +745,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1722421058" type="1" fgLvl="82" fgClr="0000FF00" bgLvl="18" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722575979" type="1" fgLvl="82" fgClr="0000FF00" bgLvl="18" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -580,7 +756,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1722421058" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722575979" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -602,7 +778,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722421058"/>
+          <pm:border xmlns:pm="smNativeData" id="1722575979"/>
         </ext>
       </extLst>
     </border>
@@ -621,7 +797,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722421058"/>
+          <pm:border xmlns:pm="smNativeData" id="1722575979"/>
         </ext>
       </extLst>
     </border>
@@ -640,7 +816,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722421058"/>
+          <pm:border xmlns:pm="smNativeData" id="1722575979"/>
         </ext>
       </extLst>
     </border>
@@ -648,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,24 +854,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -707,10 +886,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1722421058" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1722575979" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1722421058" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1722575979" count="3">
         <pm:color name="Color 24" rgb="FF6D01"/>
         <pm:color name="Color 25" rgb="00D1D1"/>
         <pm:color name="Color 26" rgb="00D100"/>
@@ -1174,7 +1353,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722421058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722575979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1183,16 +1362,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722421058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722575979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1430,7 +1609,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722421058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722575979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1439,16 +1618,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722421058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722575979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1732,7 +1911,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722421058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722575979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1741,16 +1920,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722421058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722575979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1992,7 +2171,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722421058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722575979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2001,16 +2180,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722421058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722575979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2029,10 +2208,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="21.450450" customWidth="1" style="11"/>
-    <col min="2" max="2" width="64.810811" customWidth="1" style="11"/>
-    <col min="3" max="3" width="10.000000" style="11"/>
-    <col min="4" max="16384" width="21.450450" customWidth="1" style="11"/>
+    <col min="1" max="1" width="21.450450" customWidth="1" style="7"/>
+    <col min="2" max="2" width="64.810811" customWidth="1" style="7"/>
+    <col min="3" max="3" width="10.000000" style="7"/>
+    <col min="4" max="16384" width="21.450450" customWidth="1" style="7"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:13" s="4" customFormat="1">
@@ -2051,467 +2230,467 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="13" t="n">
+      <c r="A15" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="11"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="11"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="11"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="11"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="11"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="12"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="11"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="11"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="13"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="11"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="11"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="13"/>
+      <c r="A63" s="4"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="13"/>
+      <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="13"/>
+      <c r="A65" s="4"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="13"/>
+      <c r="A66" s="4"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="13"/>
+      <c r="A67" s="4"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="13"/>
+      <c r="A68" s="4"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="13"/>
+      <c r="A69" s="4"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="13"/>
+      <c r="A70" s="4"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="13"/>
+      <c r="A71" s="4"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="13"/>
+      <c r="A72" s="4"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="13"/>
+      <c r="A73" s="4"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="13"/>
+      <c r="A74" s="4"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="13"/>
+      <c r="A75" s="4"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="13"/>
+      <c r="A76" s="4"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="13"/>
+      <c r="A77" s="4"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="13"/>
+      <c r="A78" s="4"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="13"/>
+      <c r="A79" s="4"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="13"/>
+      <c r="A80" s="4"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="13"/>
+      <c r="A81" s="4"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="13"/>
+      <c r="A82" s="4"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="13"/>
+      <c r="A83" s="4"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="13"/>
+      <c r="A84" s="4"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="13"/>
+      <c r="A85" s="4"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="13"/>
+      <c r="A86" s="4"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="13"/>
+      <c r="A87" s="4"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="13"/>
+      <c r="A88" s="4"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="13"/>
+      <c r="A89" s="4"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="13"/>
+      <c r="A90" s="4"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="13"/>
+      <c r="A91" s="4"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="13"/>
+      <c r="A92" s="4"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="13"/>
+      <c r="A93" s="4"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="13"/>
+      <c r="A94" s="4"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="13"/>
+      <c r="A95" s="4"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="13"/>
+      <c r="A96" s="4"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="13"/>
+      <c r="A97" s="4"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="13"/>
+      <c r="A98" s="4"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="13"/>
+      <c r="A99" s="4"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="13"/>
+      <c r="A100" s="4"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="13"/>
+      <c r="A101" s="4"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="13"/>
+      <c r="A102" s="4"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="13"/>
+      <c r="A103" s="4"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="13"/>
+      <c r="A104" s="4"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="13"/>
+      <c r="A105" s="4"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="13"/>
+      <c r="A106" s="4"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="13"/>
+      <c r="A107" s="4"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="13"/>
+      <c r="A108" s="4"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="13"/>
+      <c r="A109" s="4"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="13"/>
+      <c r="A110" s="4"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="13"/>
+      <c r="A111" s="4"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="13"/>
+      <c r="A112" s="4"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="13"/>
+      <c r="A113" s="4"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="13"/>
+      <c r="A114" s="4"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="13"/>
+      <c r="A115" s="4"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="13"/>
+      <c r="A116" s="4"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="13"/>
+      <c r="A117" s="4"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="13"/>
+      <c r="A118" s="4"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="13"/>
+      <c r="A119" s="4"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="13"/>
+      <c r="A120" s="4"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="13"/>
+      <c r="A121" s="4"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="13"/>
+      <c r="A122" s="4"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="13"/>
+      <c r="A123" s="4"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="13"/>
+      <c r="A124" s="4"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="13"/>
+      <c r="A125" s="4"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="13"/>
+      <c r="A126" s="4"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="13"/>
+      <c r="A127" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2520,7 +2699,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722421058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722575979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2529,16 +2708,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722421058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722575979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2551,16 +2730,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A5:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView view="normal" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="20.432432" customWidth="1" style="16"/>
-    <col min="2" max="2" width="63.684685" customWidth="1" style="16"/>
-    <col min="3" max="3" width="10.000000" style="16"/>
-    <col min="4" max="16384" width="20.432432" customWidth="1" style="16"/>
+    <col min="1" max="1" width="20.432432" customWidth="1" style="4"/>
+    <col min="2" max="2" width="63.684685" customWidth="1" style="4"/>
+    <col min="3" max="3" width="10.000000" style="4"/>
+    <col min="4" max="16384" width="20.432432" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:13" s="4" customFormat="1">
@@ -2579,244 +2758,244 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="17"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="16" t="n">
+      <c r="A16" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="16" t="n">
+      <c r="A19" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="16" t="n">
+      <c r="A20" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="17"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="17"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="17"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="17"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="17"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="17"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="17"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="17"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="17"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="17"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="17"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="17"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="17"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="17"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="17"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="17"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="17"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="17"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="17"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="17"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="17"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="17"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="17"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="17"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="17"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="17"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="17"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="17"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="17"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="17"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="17"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="17"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="17"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="17"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="17"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="17"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="17"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="17"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="17"/>
+      <c r="B60" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2825,7 +3004,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722421058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722575979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2834,16 +3013,1191 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722421058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722421058" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722421058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722575979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5:M80"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.000000" style="12"/>
+    <col min="2" max="2" width="63.711712" customWidth="1" style="12"/>
+    <col min="3" max="16384" width="10.000000" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:13" s="4" customFormat="1">
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="13"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="13"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="13"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="13"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="14"/>
+      <c r="B54" s="13"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="13"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="13"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="14"/>
+      <c r="B57" s="13"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="14"/>
+      <c r="B59" s="13"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="14"/>
+      <c r="B60" s="13"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="14"/>
+      <c r="B61" s="13"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="14"/>
+      <c r="B62" s="13"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="14"/>
+      <c r="B63" s="13"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="13"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="13"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="13"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="13"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="13"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="13"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="13"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="13"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722575979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722575979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5:M93"/>
+  <sheetViews>
+    <sheetView view="normal" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.000000" style="14"/>
+    <col min="2" max="2" width="64.612613" customWidth="1" style="14"/>
+    <col min="3" max="16384" width="10.000000" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:13" s="4" customFormat="1">
+      <c r="B5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="13"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="13"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="13"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="13"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="13"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="13"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="13"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="13"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="13"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="13"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="13"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="13"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="13"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="13"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="13"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="13"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="13"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="13"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="13"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="13"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="13"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="13"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="13"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="13"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="13"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="13"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="13"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="13"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="13"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="13"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="13"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="13"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722575979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722575979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5:M82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.000000" style="17"/>
+    <col min="2" max="2" width="69.558559" customWidth="1" style="17"/>
+    <col min="3" max="3" width="10.000000" style="17"/>
+    <col min="4" max="16384" width="27.072072" customWidth="1" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:13" s="4" customFormat="1">
+      <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="13"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="13"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="13"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="13"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="13"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="13"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="13"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="13"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="13"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="13"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="13"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="13"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="13"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="13"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="13"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="13"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="13"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="13"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="13"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="13"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="13"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="13"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="13"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722575979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722575979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722575979" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722575979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
